--- a/www/plys/Tern/AFM.xlsx
+++ b/www/plys/Tern/AFM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tzurloye\Desktop\RockR! v1.3\plys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtshu\Desktop\RockR-master\www\plys\Tern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37CDE5D-DCB2-4734-9462-5C2876F798C1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880C0B07-81A8-4834-9150-458C14CE8D44}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" xr2:uid="{F1DDF450-51F8-47CC-8C6B-921E0C73DF77}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="9072" activeTab="2" xr2:uid="{F1DDF450-51F8-47CC-8C6B-921E0C73DF77}"/>
   </bookViews>
   <sheets>
     <sheet name="plys" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="20">
   <si>
     <t>A</t>
   </si>
@@ -122,6 +122,15 @@
       </rPr>
       <t>O</t>
     </r>
+  </si>
+  <si>
+    <t>A_arrow</t>
+  </si>
+  <si>
+    <t>B_arrow</t>
+  </si>
+  <si>
+    <t>C_arrow</t>
   </si>
 </sst>
 </file>
@@ -488,19 +497,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9529596-61E0-4F4F-A620-DAFC4599F044}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30:XFD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="1" max="2" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>56</v>
       </c>
@@ -534,7 +543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>60</v>
       </c>
@@ -551,7 +560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>66</v>
       </c>
@@ -568,7 +577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>67.5</v>
       </c>
@@ -585,7 +594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>67.75</v>
       </c>
@@ -602,7 +611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>67</v>
       </c>
@@ -619,7 +628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>60</v>
       </c>
@@ -636,7 +645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>50</v>
       </c>
@@ -653,7 +662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>40</v>
       </c>
@@ -670,7 +679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>50</v>
       </c>
@@ -687,7 +696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>60</v>
       </c>
@@ -704,7 +713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>67</v>
       </c>
@@ -721,7 +730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>67.75</v>
       </c>
@@ -738,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>67.5</v>
       </c>
@@ -755,7 +764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>66</v>
       </c>
@@ -772,7 +781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>60</v>
       </c>
@@ -789,7 +798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>56</v>
       </c>
@@ -806,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44.5</v>
       </c>
@@ -823,7 +832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>20</v>
       </c>
@@ -840,7 +849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44.5</v>
       </c>
@@ -857,7 +866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>35</v>
       </c>
@@ -874,7 +883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44</v>
       </c>
@@ -891,7 +900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>51.5</v>
       </c>
@@ -908,7 +917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>54.5</v>
       </c>
@@ -925,7 +934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>55.25</v>
       </c>
@@ -942,7 +951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>54.5</v>
       </c>
@@ -959,7 +968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>48.5</v>
       </c>
@@ -976,7 +985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>37</v>
       </c>
@@ -993,7 +1002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>48.5</v>
       </c>
@@ -1010,7 +1019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>54.5</v>
       </c>
@@ -1027,7 +1036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>55.25</v>
       </c>
@@ -1044,7 +1053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>54.5</v>
       </c>
@@ -1061,7 +1070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>51.5</v>
       </c>
@@ -1078,7 +1087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>44</v>
       </c>
@@ -1095,7 +1104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1112,13 +1121,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
     </row>
   </sheetData>
-  <sortState ref="A2:E53">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E53">
     <sortCondition ref="E2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1133,12 +1142,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1164,7 +1173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1190,7 +1199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1216,47 +1225,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
     </row>
   </sheetData>
@@ -1266,15 +1275,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E532FD-530C-44D1-B4F3-37AF0671EC71}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="6" width="14.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1285,10 +1297,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1299,6 +1320,15 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
     </row>
